--- a/excel/306 Indicativo - Futuro Anteriore.xlsx
+++ b/excel/306 Indicativo - Futuro Anteriore.xlsx
@@ -31,7 +31,7 @@
     <t>例句</t>
   </si>
   <si>
-    <t>Indicativo - Futuro Anteriore</t>
+    <t>306 Indicativo - Futuro Anteriore</t>
   </si>
   <si>
     <t>finire</t>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A3" sqref="A3:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/excel/306 Indicativo - Futuro Anteriore.xlsx
+++ b/excel/306 Indicativo - Futuro Anteriore.xlsx
@@ -40,7 +40,7 @@
     <t>io</t>
   </si>
   <si>
-    <t>avrò finito || sarò finita/finito</t>
+    <t>sarò finita/finito || avrò finito</t>
   </si>
   <si>
     <t>Appena avrò finito di leggere questo libro te lo presterò.</t>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A28"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
